--- a/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.3 Historias de Usuario/Historias de Usuario-1.0v.xlsx
+++ b/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.3 Historias de Usuario/Historias de Usuario-1.0v.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panch\Desktop\University\Semester-VI\Analisis\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A120482F-ECD0-40F1-AE09-038D2C4FC86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5796A1-456E-4E49-91AC-D9DD6794BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="6300" windowWidth="18000" windowHeight="9480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historia de Usuario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
   <si>
     <t>HISTORIA DE USUARIO (HU)</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>Nayeli Arellano</t>
+  </si>
+  <si>
+    <t>Catalogo</t>
   </si>
 </sst>
 </file>
@@ -1518,73 +1521,6 @@
     <xf numFmtId="164" fontId="16" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,6 +1556,73 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1985,23 +1988,23 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="70"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="87"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -2055,15 +2058,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2079,17 +2082,17 @@
         <v>4</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="71" t="str">
+      <c r="E10" s="89" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,5,0)</f>
         <v>Bodeguero</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="71" t="str">
+      <c r="H10" s="89" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="17"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2134,15 +2137,15 @@
         <v>5</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -2169,17 +2172,17 @@
         <v>2h</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="71" t="str">
+      <c r="E13" s="89" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,10,0)</f>
         <v xml:space="preserve">Media </v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="71" t="str">
+      <c r="H13" s="89" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,7,0)</f>
         <v>Nayeli Arellano</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2229,34 +2232,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="72" t="str">
+      <c r="D15" s="90" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,3,0)</f>
         <v>Conocer el stock de los productos para, en base al analisis, determinar ciertas acciones</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="72" t="str">
+      <c r="H15" s="90" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,4,0)</f>
         <v>Despliegue de una lista de productos con su respectiva cantidad, existencia, dentro del almacen/bodega</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="60"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="73" t="s">
+      <c r="L15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="65" t="str">
+      <c r="M15" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,6,0)</f>
         <v>El sistema debera permitir que el actor consulte la cantidad de productos de determinado tipo</v>
       </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="60"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="75"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2272,19 +2275,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="62"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="62"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="80"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2300,19 +2303,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="64"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="64"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="77"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2355,42 +2358,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="76" t="str">
+      <c r="D19" s="75"/>
+      <c r="E19" s="91" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,14,0)</f>
         <v>Revisar Stock</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="93"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="96"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="3"/>
     </row>
@@ -2415,30 +2418,30 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="65" t="str">
+      <c r="D22" s="75"/>
+      <c r="E22" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,12,0)</f>
         <v>Solicitar una lista de productos, se debe deplagar el producto con la cantidad en existencia
 Solicitar un producto, se debe deplegar el stock</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="60"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="65" t="str">
+      <c r="K22" s="75"/>
+      <c r="L22" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,13,0)</f>
         <v>Sin Comentarios</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="60"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="75"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2454,19 +2457,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="62"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="62"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2482,19 +2485,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="64"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="64"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="77"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -4073,6 +4076,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -4089,11 +4097,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -4141,8 +4144,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4161,22 +4164,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
@@ -4289,7 +4292,7 @@
       <c r="O3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="102" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="24"/>
@@ -4347,7 +4350,7 @@
       <c r="O4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="91"/>
+      <c r="P4" s="103"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
@@ -4403,7 +4406,7 @@
       <c r="O5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="91"/>
+      <c r="P5" s="103"/>
       <c r="Q5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
@@ -4457,7 +4460,7 @@
       <c r="O6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="91"/>
+      <c r="P6" s="103"/>
       <c r="Q6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
@@ -4511,7 +4514,7 @@
       <c r="O7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="91"/>
+      <c r="P7" s="103"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="T7" s="24"/>
@@ -4566,7 +4569,7 @@
       <c r="O8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="86"/>
+      <c r="P8" s="98"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="T8" s="24"/>
@@ -4597,7 +4600,7 @@
       <c r="G9" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="65" t="s">
         <v>216</v>
       </c>
       <c r="I9" s="33" t="s">
@@ -4621,7 +4624,7 @@
       <c r="O9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="92" t="s">
+      <c r="P9" s="104" t="s">
         <v>85</v>
       </c>
       <c r="Q9" s="24"/>
@@ -4655,7 +4658,7 @@
       <c r="G10" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="65" t="s">
         <v>216</v>
       </c>
       <c r="I10" s="33" t="s">
@@ -4679,7 +4682,7 @@
       <c r="O10" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="91"/>
+      <c r="P10" s="103"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -4711,7 +4714,7 @@
       <c r="G11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="65" t="s">
         <v>216</v>
       </c>
       <c r="I11" s="33" t="s">
@@ -4735,7 +4738,7 @@
       <c r="O11" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="91"/>
+      <c r="P11" s="103"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
@@ -4767,7 +4770,7 @@
       <c r="G12" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="65" t="s">
         <v>216</v>
       </c>
       <c r="I12" s="33" t="s">
@@ -4791,7 +4794,7 @@
       <c r="O12" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="86"/>
+      <c r="P12" s="98"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
@@ -4823,7 +4826,7 @@
       <c r="G13" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="66" t="s">
         <v>217</v>
       </c>
       <c r="I13" s="36" t="s">
@@ -4847,7 +4850,7 @@
       <c r="O13" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="93" t="s">
+      <c r="P13" s="105" t="s">
         <v>116</v>
       </c>
       <c r="Q13" s="24"/>
@@ -4881,7 +4884,7 @@
       <c r="G14" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="66" t="s">
         <v>217</v>
       </c>
       <c r="I14" s="36" t="s">
@@ -4905,7 +4908,7 @@
       <c r="O14" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="91"/>
+      <c r="P14" s="103"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
@@ -4937,7 +4940,7 @@
       <c r="G15" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="66" t="s">
         <v>217</v>
       </c>
       <c r="I15" s="36" t="s">
@@ -4961,7 +4964,7 @@
       <c r="O15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="91"/>
+      <c r="P15" s="103"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
@@ -4993,7 +4996,7 @@
       <c r="G16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="101" t="s">
+      <c r="H16" s="66" t="s">
         <v>217</v>
       </c>
       <c r="I16" s="36" t="s">
@@ -5017,7 +5020,7 @@
       <c r="O16" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="86"/>
+      <c r="P16" s="98"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
@@ -5049,7 +5052,7 @@
       <c r="G17" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="67" t="s">
         <v>215</v>
       </c>
       <c r="I17" s="39" t="s">
@@ -5073,7 +5076,9 @@
       <c r="O17" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="P17" s="24"/>
+      <c r="P17" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
@@ -5105,7 +5110,7 @@
       <c r="G18" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="68" t="s">
         <v>215</v>
       </c>
       <c r="I18" s="43" t="s">
@@ -5129,7 +5134,7 @@
       <c r="O18" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P18" s="88" t="s">
+      <c r="P18" s="100" t="s">
         <v>153</v>
       </c>
       <c r="Q18" s="24"/>
@@ -5163,7 +5168,7 @@
       <c r="G19" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" s="68" t="s">
         <v>216</v>
       </c>
       <c r="I19" s="43" t="s">
@@ -5187,7 +5192,7 @@
       <c r="O19" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="P19" s="88"/>
+      <c r="P19" s="100"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
@@ -5219,7 +5224,7 @@
       <c r="G20" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="68" t="s">
         <v>215</v>
       </c>
       <c r="I20" s="43" t="s">
@@ -5243,7 +5248,7 @@
       <c r="O20" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="P20" s="88"/>
+      <c r="P20" s="100"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
@@ -5275,7 +5280,7 @@
       <c r="G21" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H21" s="68" t="s">
         <v>215</v>
       </c>
       <c r="I21" s="43" t="s">
@@ -5299,7 +5304,7 @@
       <c r="O21" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="P21" s="88"/>
+      <c r="P21" s="100"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
@@ -5331,7 +5336,7 @@
       <c r="G22" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="103" t="s">
+      <c r="H22" s="68" t="s">
         <v>215</v>
       </c>
       <c r="I22" s="43" t="s">
@@ -5355,7 +5360,7 @@
       <c r="O22" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="88"/>
+      <c r="P22" s="100"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
@@ -5387,7 +5392,7 @@
       <c r="G23" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="104" t="s">
+      <c r="H23" s="69" t="s">
         <v>215</v>
       </c>
       <c r="I23" s="45" t="s">
@@ -5411,7 +5416,7 @@
       <c r="O23" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="P23" s="85" t="s">
+      <c r="P23" s="97" t="s">
         <v>188</v>
       </c>
       <c r="Q23" s="24"/>
@@ -5445,7 +5450,7 @@
       <c r="G24" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="104" t="s">
+      <c r="H24" s="69" t="s">
         <v>215</v>
       </c>
       <c r="I24" s="45" t="s">
@@ -5469,7 +5474,7 @@
       <c r="O24" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="P24" s="86"/>
+      <c r="P24" s="98"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
@@ -5501,7 +5506,7 @@
       <c r="G25" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="105" t="s">
+      <c r="H25" s="70" t="s">
         <v>217</v>
       </c>
       <c r="I25" s="48" t="s">
@@ -5525,7 +5530,7 @@
       <c r="O25" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="P25" s="87" t="s">
+      <c r="P25" s="99" t="s">
         <v>203</v>
       </c>
       <c r="Q25" s="24"/>
@@ -5559,7 +5564,7 @@
       <c r="G26" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="70" t="s">
         <v>216</v>
       </c>
       <c r="I26" s="48" t="s">
@@ -5583,7 +5588,7 @@
       <c r="O26" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="P26" s="86"/>
+      <c r="P26" s="98"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
@@ -33130,59 +33135,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="63" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="64" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="64" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="64" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.3 Historias de Usuario/Historias de Usuario-1.0v.xlsx
+++ b/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.3 Historias de Usuario/Historias de Usuario-1.0v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEXTO\Análisis\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77CB15-632C-44F0-B98F-0C232D135E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D68FCB-768D-4320-8A8A-45276B5583B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,22 +1562,45 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,26 +1609,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1628,9 +1631,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1996,23 +1996,23 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="90"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="88"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -2069,12 +2069,12 @@
       <c r="E9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="12"/>
       <c r="H9" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2090,17 +2090,17 @@
         <v>4</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="91" t="str">
+      <c r="E10" s="90" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,5,0)</f>
         <v>Bodeguero</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="91" t="str">
+      <c r="H10" s="90" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,11,0)</f>
-        <v>No iniciado</v>
-      </c>
-      <c r="I10" s="90"/>
+        <v>Terminado</v>
+      </c>
+      <c r="I10" s="88"/>
       <c r="J10" s="17"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2148,12 +2148,12 @@
       <c r="E12" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="17"/>
       <c r="H12" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="88"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -2180,17 +2180,17 @@
         <v>2h</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="91" t="str">
+      <c r="E13" s="90" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,10,0)</f>
         <v xml:space="preserve">Media </v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="91" t="str">
+      <c r="H13" s="90" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,7,0)</f>
         <v>Nayeli Arellano</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="88"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2240,33 +2240,33 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="96" t="str">
+      <c r="D15" s="91" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,3,0)</f>
         <v>Conocer el stock de los productos para, en base al analisis, determinar ciertas acciones</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="96" t="str">
+      <c r="H15" s="91" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,4,0)</f>
         <v>Despliegue de una lista de productos con su respectiva cantidad, existencia, dentro del almacen/bodega</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="76"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="74" t="str">
+      <c r="M15" s="82" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,6,0)</f>
         <v>El sistema debera permitir que el actor consulte la cantidad de productos de determinado tipo</v>
       </c>
-      <c r="N15" s="75"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="76"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="3"/>
@@ -2283,19 +2283,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="79"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="79"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2311,19 +2311,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="78"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="78"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2366,42 +2366,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="76"/>
-      <c r="E19" s="83" t="str">
+      <c r="E19" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,14,0)</f>
         <v>Revisar Stock</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="85"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="94"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="97"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="3"/>
     </row>
@@ -2426,29 +2426,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="76"/>
-      <c r="E22" s="74" t="str">
+      <c r="E22" s="82" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,12,0)</f>
         <v>Solicitar una lista de productos, se debe deplagar el producto con la cantidad en existencia
 Solicitar un producto, se debe deplegar el stock</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="76"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="93" t="s">
+      <c r="J22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="76"/>
-      <c r="L22" s="74" t="str">
+      <c r="L22" s="82" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,13,0)</f>
         <v>Sin Comentarios</v>
       </c>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
       <c r="O22" s="76"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="3"/>
@@ -2465,19 +2465,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2493,19 +2493,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="78"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="78"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -4084,6 +4084,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -4100,11 +4105,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -4152,8 +4152,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4172,22 +4172,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
@@ -4300,7 +4300,7 @@
       <c r="O3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="102" t="s">
+      <c r="P3" s="103" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="24"/>
@@ -4358,7 +4358,7 @@
       <c r="O4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="103"/>
+      <c r="P4" s="104"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
@@ -4414,7 +4414,7 @@
       <c r="O5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="103"/>
+      <c r="P5" s="104"/>
       <c r="Q5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
@@ -4468,7 +4468,7 @@
       <c r="O6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="103"/>
+      <c r="P6" s="104"/>
       <c r="Q6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
@@ -4522,7 +4522,7 @@
       <c r="O7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="103"/>
+      <c r="P7" s="104"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="T7" s="24"/>
@@ -4577,7 +4577,7 @@
       <c r="O8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="98"/>
+      <c r="P8" s="99"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="T8" s="24"/>
@@ -4588,7 +4588,7 @@
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
     </row>
-    <row r="9" spans="1:26" ht="138" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="138" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="27" t="s">
         <v>78</v>
@@ -4632,7 +4632,7 @@
       <c r="O9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="104" t="s">
+      <c r="P9" s="105" t="s">
         <v>85</v>
       </c>
       <c r="Q9" s="24"/>
@@ -4646,7 +4646,7 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
     </row>
-    <row r="10" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="27" t="s">
         <v>86</v>
@@ -4690,7 +4690,7 @@
       <c r="O10" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="103"/>
+      <c r="P10" s="104"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -4702,7 +4702,7 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:26" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="27" t="s">
         <v>94</v>
@@ -4746,7 +4746,7 @@
       <c r="O11" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="103"/>
+      <c r="P11" s="104"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
@@ -4758,7 +4758,7 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
     </row>
-    <row r="12" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="27" t="s">
         <v>101</v>
@@ -4799,10 +4799,10 @@
       <c r="N12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="106" t="s">
+      <c r="O12" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="98"/>
+      <c r="P12" s="99"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
@@ -4814,7 +4814,7 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="1:26" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="27" t="s">
         <v>108</v>
@@ -4847,7 +4847,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>114</v>
@@ -4858,7 +4858,7 @@
       <c r="O13" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="105" t="s">
+      <c r="P13" s="106" t="s">
         <v>116</v>
       </c>
       <c r="Q13" s="24"/>
@@ -4872,7 +4872,7 @@
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="1:26" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="27" t="s">
         <v>117</v>
@@ -4905,7 +4905,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>122</v>
@@ -4916,7 +4916,7 @@
       <c r="O14" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="103"/>
+      <c r="P14" s="104"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
@@ -4928,7 +4928,7 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="27" t="s">
         <v>4</v>
@@ -4961,7 +4961,7 @@
         <v>60</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>128</v>
@@ -4972,7 +4972,7 @@
       <c r="O15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="103"/>
+      <c r="P15" s="104"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
@@ -4984,7 +4984,7 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="1:26" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="27" t="s">
         <v>130</v>
@@ -5017,7 +5017,7 @@
         <v>60</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>135</v>
@@ -5028,7 +5028,7 @@
       <c r="O16" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="98"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
@@ -5142,7 +5142,7 @@
       <c r="O18" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P18" s="100" t="s">
+      <c r="P18" s="101" t="s">
         <v>153</v>
       </c>
       <c r="Q18" s="24"/>
@@ -5156,7 +5156,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="27" t="s">
         <v>154</v>
@@ -5200,7 +5200,7 @@
       <c r="O19" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="P19" s="100"/>
+      <c r="P19" s="101"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
@@ -5256,7 +5256,7 @@
       <c r="O20" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="P20" s="100"/>
+      <c r="P20" s="101"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
@@ -5312,7 +5312,7 @@
       <c r="O21" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="P21" s="100"/>
+      <c r="P21" s="101"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
@@ -5368,7 +5368,7 @@
       <c r="O22" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="100"/>
+      <c r="P22" s="101"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
@@ -5424,7 +5424,7 @@
       <c r="O23" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="P23" s="97" t="s">
+      <c r="P23" s="98" t="s">
         <v>188</v>
       </c>
       <c r="Q23" s="24"/>
@@ -5482,7 +5482,7 @@
       <c r="O24" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="P24" s="98"/>
+      <c r="P24" s="99"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
@@ -5494,7 +5494,7 @@
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="1:26" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="27" t="s">
         <v>196</v>
@@ -5538,7 +5538,7 @@
       <c r="O25" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="P25" s="99" t="s">
+      <c r="P25" s="100" t="s">
         <v>203</v>
       </c>
       <c r="Q25" s="24"/>
@@ -5552,7 +5552,7 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="27" t="s">
         <v>204</v>
@@ -5596,7 +5596,7 @@
       <c r="O26" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="P26" s="98"/>
+      <c r="P26" s="99"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
@@ -33080,7 +33080,7 @@
   <autoFilter ref="B2:O26" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="Alan Bermudez"/>
+        <filter val="Nayeli Arellano"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O26">

--- a/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.3 Historias de Usuario/Historias de Usuario-1.0v.xlsx
+++ b/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.3 Historias de Usuario/Historias de Usuario-1.0v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEXTO\Análisis\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D68FCB-768D-4320-8A8A-45276B5583B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4CC63-AC7C-48D4-82B1-7F384F2A67FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,37 +1570,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,6 +1589,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1996,23 +1996,23 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="88"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -2066,15 +2066,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="88"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2090,17 +2090,17 @@
         <v>4</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="90" t="str">
+      <c r="E10" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,5,0)</f>
         <v>Bodeguero</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="90" t="str">
+      <c r="H10" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,11,0)</f>
         <v>Terminado</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="17"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2145,15 +2145,15 @@
         <v>5</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="88"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="89" t="s">
+      <c r="H12" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="88"/>
+      <c r="I12" s="91"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -2180,17 +2180,17 @@
         <v>2h</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="90" t="str">
+      <c r="E13" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,10,0)</f>
         <v xml:space="preserve">Media </v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="90" t="str">
+      <c r="H13" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,7,0)</f>
         <v>Nayeli Arellano</v>
       </c>
-      <c r="I13" s="88"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2243,31 +2243,31 @@
       <c r="C15" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="91" t="str">
+      <c r="D15" s="97" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,3,0)</f>
         <v>Conocer el stock de los productos para, en base al analisis, determinar ciertas acciones</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="13"/>
       <c r="G15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="91" t="str">
+      <c r="H15" s="97" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,4,0)</f>
         <v>Despliegue de una lista de productos con su respectiva cantidad, existencia, dentro del almacen/bodega</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="13"/>
       <c r="L15" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="82" t="str">
+      <c r="M15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,6,0)</f>
         <v>El sistema debera permitir que el actor consulte la cantidad de productos de determinado tipo</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2284,18 +2284,18 @@
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="13"/>
       <c r="G16" s="73"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="81"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="13"/>
       <c r="L16" s="73"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="81"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2312,18 +2312,18 @@
       <c r="A17" s="3"/>
       <c r="B17" s="10"/>
       <c r="C17" s="74"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="13"/>
       <c r="G17" s="74"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="78"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="13"/>
       <c r="L17" s="74"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="78"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="83"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2366,42 +2366,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="92" t="str">
+      <c r="D19" s="77"/>
+      <c r="E19" s="84" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,14,0)</f>
         <v>Revisar Stock</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="94"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="97"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="3"/>
     </row>
@@ -2426,30 +2426,30 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="82" t="str">
+      <c r="D22" s="77"/>
+      <c r="E22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,12,0)</f>
         <v>Solicitar una lista de productos, se debe deplagar el producto con la cantidad en existencia
 Solicitar un producto, se debe deplegar el stock</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="82" t="str">
+      <c r="K22" s="77"/>
+      <c r="L22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B3:O26,13,0)</f>
         <v>Sin Comentarios</v>
       </c>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2465,19 +2465,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="81"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="81"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2493,19 +2493,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="78"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="78"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -4084,11 +4084,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -4105,6 +4100,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -4152,8 +4152,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4175,19 +4175,19 @@
       <c r="B1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
@@ -4588,7 +4588,7 @@
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
     </row>
-    <row r="9" spans="1:26" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="138" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="27" t="s">
         <v>78</v>
@@ -4646,7 +4646,7 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
     </row>
-    <row r="10" spans="1:26" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="27" t="s">
         <v>86</v>
@@ -4702,7 +4702,7 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:26" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="27" t="s">
         <v>94</v>
@@ -4758,7 +4758,7 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
     </row>
-    <row r="12" spans="1:26" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="27" t="s">
         <v>101</v>
@@ -4814,7 +4814,7 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="27" t="s">
         <v>108</v>
@@ -4872,7 +4872,7 @@
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="27" t="s">
         <v>117</v>
@@ -4928,7 +4928,7 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="27" t="s">
         <v>4</v>
@@ -4984,7 +4984,7 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="27" t="s">
         <v>130</v>
@@ -5156,7 +5156,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:26" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="69" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="27" t="s">
         <v>154</v>
@@ -5189,7 +5189,7 @@
         <v>143</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="M19" s="41" t="s">
         <v>159</v>
@@ -5494,7 +5494,7 @@
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="27" t="s">
         <v>196</v>
@@ -5552,7 +5552,7 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="1:26" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="27" t="s">
         <v>204</v>
@@ -33080,7 +33080,7 @@
   <autoFilter ref="B2:O26" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="Nayeli Arellano"/>
+        <filter val="Alan Bermudez"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O26">
